--- a/tables/xlsx/Item/MaterialItem.xlsx
+++ b/tables/xlsx/Item/MaterialItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C45263F-FC42-4103-95B2-74A036EEE3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744D152-8E98-48CA-9F35-89803CA4DCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -454,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,16 +462,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -479,28 +499,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,20 +603,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C5C7D87-9DF9-4D8C-8BE5-32149AD3F60B}" name="MaterialItemSheet" displayName="MaterialItemSheet" ref="A1:E129" totalsRowShown="0">
-  <autoFilter ref="A1:E129" xr:uid="{1C5C7D87-9DF9-4D8C-8BE5-32149AD3F60B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{731A60BB-0AD3-4B88-B4BD-CD6853601616}" name="id"/>
-    <tableColumn id="2" xr3:uid="{4F09346D-A9DA-4099-9AC7-AF2ECB8F019B}" name="_name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FF9EFBC1-C7AC-4170-A15E-D703DA338ED9}" name="item_sub_type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F5AA042A-16F4-43AE-91E8-5E148E66F55B}" name="grade"/>
-    <tableColumn id="5" xr3:uid="{D2BD12BA-6919-4608-84F6-DC7788D285A3}" name="elemental_type" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,7 +871,7 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,2203 +884,2200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>100000</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>301000</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>302000</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>302001</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>302002</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>302003</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>302004</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>302005</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>302006</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>302007</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>302008</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>302009</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>302010</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>302011</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>302012</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>302013</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>302014</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>302015</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>302016</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>302017</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>302018</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>303000</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>303001</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>303002</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="9">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>303003</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>303004</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="9">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>303100</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>303101</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>303102</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>303103</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="9">
         <v>4</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>303104</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>5</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>303200</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>303201</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>303202</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="9">
         <v>3</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>303203</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>303204</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="9">
         <v>5</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>303300</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>303301</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>303302</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>303303</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="9">
         <v>4</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>303304</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>303400</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>303401</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>303402</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="9">
         <v>3</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>303403</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>4</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>303404</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="9">
         <v>5</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>304000</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="C48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>304001</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="C49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>304002</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>304003</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="C51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>305000</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="C52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>305001</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="C53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>305002</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="C54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>305003</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="C55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="3">
         <v>305004</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="C56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>306000</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="C57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>306001</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="C58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>306002</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="C59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>306003</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="C60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="7">
         <v>306004</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="C61" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>306005</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="C62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>306006</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="9">
         <v>3</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>306007</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="5">
         <v>3</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>306008</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="9">
         <v>3</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>306009</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="C66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>306010</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="C67" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="3">
         <v>306011</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="C68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>306012</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="C69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="3">
         <v>306013</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="C70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>306014</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="C71" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="9">
+        <v>2</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="3">
         <v>306015</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="5">
         <v>3</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="7">
         <v>306016</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="9">
         <v>3</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="3">
         <v>306017</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="5">
         <v>3</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>306018</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="9">
         <v>4</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>306019</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="5">
         <v>4</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>306020</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="9">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="3">
         <v>306021</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="5">
         <v>5</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>306022</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="9">
         <v>5</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="3">
         <v>306023</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="C80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>306024</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="C81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="3">
         <v>306025</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="C82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>306026</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="C83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="9">
+        <v>2</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="3">
         <v>306027</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="C84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="7">
         <v>306028</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="C85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="9">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="3">
         <v>306029</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="5">
         <v>3</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="7">
         <v>306030</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="9">
         <v>3</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>306031</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" s="5">
         <v>3</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="7">
         <v>306032</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="9">
         <v>4</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>306033</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="5">
         <v>4</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>306034</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="9">
         <v>4</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>306035</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="C92" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>306036</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="C93" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="9">
+        <v>2</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>306037</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="C94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="7">
         <v>306038</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="C95" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="9">
+        <v>2</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>306039</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="C96" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>306040</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="C97" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>306041</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="C98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>306042</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="s">
+      <c r="C99" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>306043</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="C100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>306044</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="C101" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="9">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="3">
         <v>306045</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="5">
         <v>3</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>306046</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="9">
         <v>4</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="3">
         <v>306047</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="5">
         <v>4</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>306048</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="9">
         <v>4</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="3">
         <v>306049</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="5">
         <v>4</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="7">
         <v>306050</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="C107" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="9">
+        <v>2</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="3">
         <v>306051</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="C108" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="7">
         <v>306052</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="C109" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="9">
+        <v>2</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="3">
         <v>306053</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110">
+      <c r="C110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="5">
         <v>3</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="7">
         <v>306054</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="9">
         <v>3</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="3">
         <v>306055</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="5">
         <v>3</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>306056</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="C113" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="9">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="3">
         <v>306057</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="C114" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>306058</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="s">
+      <c r="C115" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="9">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>306059</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1" t="s">
+      <c r="C116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>306060</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="C117" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="3">
         <v>306061</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="C118" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>306062</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="C119" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="3">
         <v>306063</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="C120" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>306064</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="C121" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="3">
         <v>306065</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="C122" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>306066</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="C123" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>306067</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="C124" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>306068</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="C125" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="9">
+        <v>2</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="3">
         <v>306069</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="C126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="7">
         <v>400000</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="9">
         <v>4</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="3">
         <v>500000</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="5">
         <v>4</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>700000</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>5</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="12" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/tables/xlsx/Item/MaterialItem.xlsx
+++ b/tables/xlsx/Item/MaterialItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744D152-8E98-48CA-9F35-89803CA4DCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346AD22-CC41-4354-A972-E922C41D476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>_name</t>
-  </si>
-  <si>
     <t>item_sub_type</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>아레나 시즌0 메달</t>
+  </si>
+  <si>
+    <t>$_name</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,16 +905,16 @@
         <v>100000</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,16 +922,16 @@
         <v>301000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,16 +939,16 @@
         <v>302000</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,16 +956,16 @@
         <v>302001</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,16 +973,16 @@
         <v>302002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,16 +990,16 @@
         <v>302003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,16 +1007,16 @@
         <v>302004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,16 +1024,16 @@
         <v>302005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,16 +1041,16 @@
         <v>302006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,16 +1058,16 @@
         <v>302007</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,16 +1075,16 @@
         <v>302008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,16 +1092,16 @@
         <v>302009</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +1109,16 @@
         <v>302010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,16 +1126,16 @@
         <v>302011</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,16 +1143,16 @@
         <v>302012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,16 +1160,16 @@
         <v>302013</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,16 +1177,16 @@
         <v>302014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,16 +1194,16 @@
         <v>302015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="9">
         <v>2</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,16 +1211,16 @@
         <v>302016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,16 +1228,16 @@
         <v>302017</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,16 +1245,16 @@
         <v>302018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,16 +1262,16 @@
         <v>303000</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,16 +1279,16 @@
         <v>303001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,16 +1296,16 @@
         <v>303002</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="9">
         <v>3</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,16 +1313,16 @@
         <v>303003</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,16 +1330,16 @@
         <v>303004</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="9">
         <v>5</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,16 +1347,16 @@
         <v>303100</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,16 +1364,16 @@
         <v>303101</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="9">
         <v>2</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,16 +1381,16 @@
         <v>303102</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5">
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,16 +1398,16 @@
         <v>303103</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9">
         <v>4</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,16 +1415,16 @@
         <v>303104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,16 +1432,16 @@
         <v>303200</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="9">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,16 +1449,16 @@
         <v>303201</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>303202</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="9">
         <v>3</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,16 +1483,16 @@
         <v>303203</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,16 +1500,16 @@
         <v>303204</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="9">
         <v>5</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,16 +1517,16 @@
         <v>303300</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,16 +1534,16 @@
         <v>303301</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,16 +1551,16 @@
         <v>303302</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>303303</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9">
         <v>4</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,16 +1585,16 @@
         <v>303304</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,16 +1602,16 @@
         <v>303400</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="9">
         <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,16 +1619,16 @@
         <v>303401</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,16 +1636,16 @@
         <v>303402</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,16 +1653,16 @@
         <v>303403</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="5">
         <v>4</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,16 +1670,16 @@
         <v>303404</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="9">
         <v>5</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,16 +1687,16 @@
         <v>304000</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>304001</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>304002</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,16 +1738,16 @@
         <v>304003</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="9">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,16 +1755,16 @@
         <v>305000</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,16 +1772,16 @@
         <v>305001</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D53" s="9">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,16 +1789,16 @@
         <v>305002</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>305003</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="9">
         <v>1</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,16 +1823,16 @@
         <v>305004</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,16 +1840,16 @@
         <v>306000</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="9">
         <v>1</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,16 +1857,16 @@
         <v>306001</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,16 +1874,16 @@
         <v>306002</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="9">
         <v>1</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,16 +1891,16 @@
         <v>306003</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="5">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,16 +1908,16 @@
         <v>306004</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="9">
         <v>2</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,16 +1925,16 @@
         <v>306005</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,16 +1942,16 @@
         <v>306006</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="9">
         <v>3</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,16 +1959,16 @@
         <v>306007</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="5">
         <v>3</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,16 +1976,16 @@
         <v>306008</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="9">
         <v>3</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,16 +1993,16 @@
         <v>306009</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,16 +2010,16 @@
         <v>306010</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="9">
         <v>2</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,16 +2027,16 @@
         <v>306011</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,16 +2044,16 @@
         <v>306012</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="9">
         <v>2</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,16 +2061,16 @@
         <v>306013</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,16 +2078,16 @@
         <v>306014</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="9">
         <v>2</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,16 +2095,16 @@
         <v>306015</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="5">
         <v>3</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2112,16 +2112,16 @@
         <v>306016</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="9">
         <v>3</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,16 +2129,16 @@
         <v>306017</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="5">
         <v>3</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,16 +2146,16 @@
         <v>306018</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="9">
         <v>4</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,16 +2163,16 @@
         <v>306019</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="5">
         <v>4</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,16 +2180,16 @@
         <v>306020</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="9">
         <v>4</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,16 +2197,16 @@
         <v>306021</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" s="5">
         <v>5</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,16 +2214,16 @@
         <v>306022</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D79" s="9">
         <v>5</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,16 +2231,16 @@
         <v>306023</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D80" s="5">
-        <v>1</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,16 +2248,16 @@
         <v>306024</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D81" s="9">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,16 +2265,16 @@
         <v>306025</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,16 +2282,16 @@
         <v>306026</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="9">
+        <v>2</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D83" s="9">
-        <v>2</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,16 +2299,16 @@
         <v>306027</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D84" s="5">
-        <v>2</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,16 +2316,16 @@
         <v>306028</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="9">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D85" s="9">
-        <v>2</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,16 +2333,16 @@
         <v>306029</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="5">
         <v>3</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,16 +2350,16 @@
         <v>306030</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" s="9">
         <v>3</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,16 +2367,16 @@
         <v>306031</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,16 +2384,16 @@
         <v>306032</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" s="9">
         <v>4</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,16 +2401,16 @@
         <v>306033</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" s="5">
         <v>4</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,16 +2418,16 @@
         <v>306034</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" s="9">
         <v>4</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2435,16 +2435,16 @@
         <v>306035</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" s="5">
         <v>2</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,16 +2452,16 @@
         <v>306036</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="9">
+        <v>2</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D93" s="9">
-        <v>2</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,16 +2469,16 @@
         <v>306037</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" s="5">
         <v>2</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,16 +2486,16 @@
         <v>306038</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" s="9">
         <v>2</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,16 +2503,16 @@
         <v>306039</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" s="5">
         <v>2</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,16 +2520,16 @@
         <v>306040</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D97" s="9">
         <v>1</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,16 +2537,16 @@
         <v>306041</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,16 +2554,16 @@
         <v>306042</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="9">
         <v>1</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,16 +2571,16 @@
         <v>306043</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,16 +2588,16 @@
         <v>306044</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D101" s="9">
         <v>1</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2605,16 +2605,16 @@
         <v>306045</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D102" s="5">
         <v>3</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,16 +2622,16 @@
         <v>306046</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D103" s="9">
         <v>4</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2639,16 +2639,16 @@
         <v>306047</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D104" s="5">
         <v>4</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,16 +2656,16 @@
         <v>306048</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D105" s="9">
         <v>4</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,16 +2673,16 @@
         <v>306049</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D106" s="5">
         <v>4</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,16 +2690,16 @@
         <v>306050</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D107" s="9">
         <v>2</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,16 +2707,16 @@
         <v>306051</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D108" s="5">
         <v>2</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,16 +2724,16 @@
         <v>306052</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D109" s="9">
         <v>2</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,16 +2741,16 @@
         <v>306053</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,16 +2758,16 @@
         <v>306054</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D111" s="9">
         <v>3</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,16 +2775,16 @@
         <v>306055</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112" s="5">
         <v>3</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,16 +2792,16 @@
         <v>306056</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D113" s="9">
         <v>1</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,16 +2809,16 @@
         <v>306057</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D114" s="5">
         <v>2</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2826,16 +2826,16 @@
         <v>306058</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="9">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D115" s="9">
-        <v>1</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,16 +2843,16 @@
         <v>306059</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D116" s="5">
-        <v>1</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,16 +2860,16 @@
         <v>306060</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D117" s="9">
-        <v>1</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,16 +2877,16 @@
         <v>306061</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D118" s="5">
-        <v>1</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2894,16 +2894,16 @@
         <v>306062</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D119" s="9">
-        <v>1</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2911,16 +2911,16 @@
         <v>306063</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D120" s="5">
-        <v>1</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,16 +2928,16 @@
         <v>306064</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D121" s="9">
-        <v>1</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2945,16 +2945,16 @@
         <v>306065</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D122" s="5">
-        <v>1</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2962,16 +2962,16 @@
         <v>306066</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D123" s="9">
-        <v>1</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,16 +2979,16 @@
         <v>306067</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D124" s="5">
-        <v>1</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2996,16 +2996,16 @@
         <v>306068</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="9">
+        <v>2</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D125" s="9">
-        <v>2</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3013,16 +3013,16 @@
         <v>306069</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D126" s="5">
-        <v>2</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,16 +3030,16 @@
         <v>400000</v>
       </c>
       <c r="B127" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D127" s="9">
         <v>4</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,16 +3047,16 @@
         <v>500000</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D128" s="5">
         <v>4</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,16 +3064,16 @@
         <v>700000</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129" s="2">
         <v>5</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
